--- a/AmazonCrawler/data/listingresult.xlsx
+++ b/AmazonCrawler/data/listingresult.xlsx
@@ -15,15 +15,263 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+  <si>
+    <t>OtardDolls Hot sale soft vinyl silicone reborn doll 22" reborn baby doll lifelike baby doll children gifts</t>
+  </si>
+  <si>
+    <t>#1,956 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>NPKDOLLS Reborn Baby Doll Soft Silicone Vinyl baby Boy 22inch 55cm Magnetic Mouth Cute boy Wearing Toy Blue Dog cute doll Gift Set for Ages 2+</t>
+  </si>
+  <si>
+    <t>#691 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>#23,526 in Toys &amp; Games &gt; Preschool</t>
+  </si>
+  <si>
+    <t>Baby Doll: Little Peanut Baby Doll - 17" by Ashton Drake</t>
+  </si>
+  <si>
+    <t>#271 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>OtardDolls reborn doll 22" reborn baby doll lifelike soft vinyl doll children gifts</t>
+  </si>
+  <si>
+    <t>#2,058 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>NPK Reborn Baby Doll Soft Simulation Silicone Vinyl 22inch 55cm Magnetic Mouth Lifelike Boy Girl Toy Pink White Dairy Cow USNPK55C101</t>
+  </si>
+  <si>
+    <t>#955 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#1,238 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Real Looking Sleeping Reborn Baby Doll Girl Silicone Pink 22 Inches</t>
+  </si>
+  <si>
+    <t>#1061 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Yesteria Full Silicone Body Reborn Baby Doll Elephant Outfit Look Real Gray 10 Inches</t>
+  </si>
+  <si>
+    <t>#4458 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>OtardDolls reborn doll 20" reborn baby doll lifelike soft vinyl silicone doll children gifts</t>
+  </si>
+  <si>
+    <t>#6,358 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Npkdoll Reborn Baby Doll Soft Silicone 22inch 55cm Magnetic Mouth Lovely Lifelike Cute Boy Girl Toy Pink Flower Headdress by NPK</t>
+  </si>
+  <si>
+    <t>#630 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#766 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Any-door Reborn Baby Dolls Lifelike Newborn Boy - Soft Silicone Vinyl Baby Dolls Weighted Body Cute Partner Toy 22 Inch with All Accessories</t>
+  </si>
+  <si>
+    <t>#4,987 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>#117,200 in Toys &amp; Games &gt; Preschool</t>
+  </si>
+  <si>
+    <t>Real Looking Reborn Baby Dolls Girl Silicone Pink Outfit 22 Inches</t>
+  </si>
+  <si>
+    <t>#369 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>MAIDE DOLL MaiDe Reborn Baby Dolls 22" Cute Realistic Soft Silicone Vinyl Dolls Newborn Baby dolls With Clothes</t>
+  </si>
+  <si>
+    <t>#366 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#431 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Reborn Baby Doll Girl Look Real Silicone Pink Outfit 22 Inches</t>
+  </si>
+  <si>
+    <t>#61 in Toys &amp; Games &gt; Baby &amp; Toddler Toys &gt; Toy Sets</t>
+  </si>
+  <si>
+    <t>Reborn Newborn Baby Realike Doll Handmade Lifelike Silicone Vinyl Weighted Alive Doll for Toddler Gifts 10"</t>
+  </si>
+  <si>
+    <t>#1,054 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Pinky 26cm 10 Inch Mini Hard Vinyl Silicone Full Body Reborn Baby Doll Realistic Newborn Dolls with Blue Dress Xmas Birthday Present</t>
+  </si>
+  <si>
+    <t>#2,483 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>#66,714 in Toys &amp; Games &gt; Preschool</t>
+  </si>
+  <si>
+    <t>Magic Juice and Milk Bottle Set for Baby Dolls</t>
+  </si>
+  <si>
+    <t>#160 in Toys &amp; Games &gt; Dolls &amp; Accessories</t>
+  </si>
+  <si>
+    <t>#2,517 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys</t>
+  </si>
+  <si>
+    <t>Dirance Lifelike Reborn Doll Accesories Girl Doll Clothes Kids Toy, Suit for 20" - 22" Reborn Baby (D)</t>
+  </si>
+  <si>
+    <t>#1,445 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#1,988 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>SanyDoll Reborn Baby Doll Newborn Doll 22inch 55cm Magnetic Lifelike Cute Lovely Baby Cute sleeping doll</t>
+  </si>
+  <si>
+    <t>#1,085 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#1,451 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>iCradle 26cm 10" Mini Lovely Cute Realistic Lifelike Full Silicone Vinyl Body Sleeping Reborn Baby Doll Girl for Kids Birthday Christmas Gift Playmate Growth Partner</t>
+  </si>
+  <si>
+    <t>#331 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#390 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Handmade RealLife Baby Dolls 18" Soft Silicone Vinyl Reborns Lifelike Newborn Baby Girl Toy Magnetic Pacifier</t>
+  </si>
+  <si>
+    <t>#410 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>22" Reborn Newborn Baby Doll Realistic Lifelike Handmade Weighted Baby for Ages 3+, Soft Silicone Vinyl</t>
+  </si>
+  <si>
+    <t>#806 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Realistic Sleeping Reborn Baby Doll Girl Lifelike Silicone Pink 22 Inches</t>
+  </si>
+  <si>
+    <t>#1,320 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>MaiDe Reborn Baby Dolls 22" Cute Realistic Soft Silicone Vinyl Dolls Newborn Baby dolls With Clothes</t>
+  </si>
+  <si>
+    <t>#1,026 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#1,354 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Reborn Baby Doll Like Lifelike Newborn Baby Doll, Bundle Of Joy, Girl Doll Crafted in Soft Vinyl and Weighted Body, 17 inch by Paradise Galleries</t>
+  </si>
+  <si>
+    <t>#1,365 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Reborn Baby Dolls Boy Silicone Newborn Eyes Open 22 inch Brown Bear</t>
+  </si>
+  <si>
+    <t>#3,654 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#5,660 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Seedollia Reborn Baby Doll Girl Silicone Realistic New Born Toddler Open Blue Eyes 22 inch Pink and Blue Skirt</t>
+  </si>
+  <si>
+    <t>#1,978 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Playsets</t>
+  </si>
+  <si>
+    <t>iCradle 23" 57cm Lifelike Sleeping Baby Girl Full Body Vinyl Silicone Simulation Reborn Dolls Realistic Looking Reborn Baby Doll Anatomically Correct Magnetic Mouth with Dummy</t>
+  </si>
+  <si>
+    <t>#3,234 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#4,992 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>PENSON &amp; CO. Reborn Newborn Baby Realike Doll Handmade Lifelike Silicone Vinyl Weighted Alive Doll for Toddler Gifts 10"</t>
+  </si>
+  <si>
+    <t>#81 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#101 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>The Ashton-Drake Galleries Sophia Breathes, Coos and has a Heartbeat - So Truly Real Lifelike, Interactive &amp; Realistic Weighted Newborn Baby Doll 19-inches by</t>
+  </si>
+  <si>
+    <t>#789 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#991 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Paradise Galleries Lifelike Realistic Baby Doll, Tall Dreams Gift Set Ensemble, 19-inch Weighted Baby, for Ages 3+</t>
+  </si>
+  <si>
+    <t>#119 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#149 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Real Life Silicone Reborn Baby Dolls Boy Look Real White Outfit 22 Inches</t>
+  </si>
+  <si>
+    <t>#584 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Paradise Galleries Baby Doll Bottles 4 inch Reborn and Realistic Magic Bottle Disappearing Feeding Milk and Juice Set</t>
+  </si>
+  <si>
+    <t>#116 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Playsets</t>
+  </si>
+  <si>
+    <t>#8,241 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +281,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -40,15 +325,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,121 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,13 +433,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,169 +547,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,39 +624,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,15 +638,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,153 +682,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,14 +1226,326 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="100.375" customWidth="1"/>
+    <col min="3" max="3" width="64.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/AmazonCrawler/data/listingresult.xlsx
+++ b/AmazonCrawler/data/listingresult.xlsx
@@ -16,249 +16,345 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>OtardDolls Hot sale soft vinyl silicone reborn doll 22" reborn baby doll lifelike baby doll children gifts</t>
   </si>
   <si>
-    <t>#1,956 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#138,451 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#2,252 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>NPKDOLLS Reborn Baby Doll Soft Silicone Vinyl baby Boy 22inch 55cm Magnetic Mouth Cute boy Wearing Toy Blue Dog cute doll Gift Set for Ages 2+</t>
   </si>
   <si>
-    <t>#691 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>#23,526 in Toys &amp; Games &gt; Preschool</t>
+    <t>#52,271 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#794 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>#26,101 in Toys &amp; Games &gt; Preschool</t>
+  </si>
+  <si>
+    <t>Reborn Baby Dolls Girl Look Real Lifelike Toddler Silicone Vinyl Light Pink Knitted Outfit 22 Inches</t>
+  </si>
+  <si>
+    <t>#505,359 in Home &amp; Kitchen (See Top 100 in Home &amp; Kitchen)</t>
+  </si>
+  <si>
+    <t>#2,706 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Baby Doll: Little Peanut Baby Doll - 17" by Ashton Drake</t>
   </si>
   <si>
-    <t>#271 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#21,261 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#322 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>NPK Reborn Baby Doll Soft Simulation Silicone Vinyl 22inch 55cm Magnetic Mouth Lifelike Boy Girl Toy Pink White Dairy Cow USNPK55C101</t>
+  </si>
+  <si>
+    <t>#112,967 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#1,314 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#1,791 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>OtardDolls reborn doll 22" reborn baby doll lifelike soft vinyl doll children gifts</t>
   </si>
   <si>
-    <t>#2,058 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>NPK Reborn Baby Doll Soft Simulation Silicone Vinyl 22inch 55cm Magnetic Mouth Lifelike Boy Girl Toy Pink White Dairy Cow USNPK55C101</t>
-  </si>
-  <si>
-    <t>#955 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#1,238 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#95,252 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#1,474 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Real Looking Sleeping Reborn Baby Doll Girl Silicone Pink 22 Inches</t>
   </si>
   <si>
-    <t>#1061 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t xml:space="preserve">#30,122 in Baby (See top 100) </t>
+  </si>
+  <si>
+    <t>#1666 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Yesteria Full Silicone Body Reborn Baby Doll Elephant Outfit Look Real Gray 10 Inches</t>
   </si>
   <si>
-    <t>#4458 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t xml:space="preserve">#273,675 in Toys &amp; Games (See top 100) </t>
+  </si>
+  <si>
+    <t>#4819 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>OtardDolls reborn doll 20" reborn baby doll lifelike soft vinyl silicone doll children gifts</t>
   </si>
   <si>
-    <t>#6,358 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#346,603 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#6,348 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Npkdoll Reborn Baby Doll Soft Silicone 22inch 55cm Magnetic Mouth Lovely Lifelike Cute Boy Girl Toy Pink Flower Headdress by NPK</t>
   </si>
   <si>
-    <t>#630 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#766 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>Any-door Reborn Baby Dolls Lifelike Newborn Boy - Soft Silicone Vinyl Baby Dolls Weighted Body Cute Partner Toy 22 Inch with All Accessories</t>
-  </si>
-  <si>
-    <t>#4,987 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>#117,200 in Toys &amp; Games &gt; Preschool</t>
+    <t>#93,573 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#1,103 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#1,449 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Real Looking Reborn Baby Dolls Girl Silicone Pink Outfit 22 Inches</t>
   </si>
   <si>
-    <t>#369 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t xml:space="preserve">#7,988 in Baby (See top 100) </t>
+  </si>
+  <si>
+    <t>#324 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>MAIDE DOLL MaiDe Reborn Baby Dolls 22" Cute Realistic Soft Silicone Vinyl Dolls Newborn Baby dolls With Clothes</t>
   </si>
   <si>
-    <t>#366 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#431 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#40,461 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#527 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#614 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Reborn Baby Doll Girl Look Real Silicone Pink Outfit 22 Inches</t>
   </si>
   <si>
-    <t>#61 in Toys &amp; Games &gt; Baby &amp; Toddler Toys &gt; Toy Sets</t>
+    <t xml:space="preserve">#17,935 in Baby (See top 100) </t>
+  </si>
+  <si>
+    <t>#66 in Toys &amp; Games &gt; Baby &amp; Toddler Toys &gt; Toy Sets</t>
   </si>
   <si>
     <t>Reborn Newborn Baby Realike Doll Handmade Lifelike Silicone Vinyl Weighted Alive Doll for Toddler Gifts 10"</t>
   </si>
   <si>
-    <t>#1,054 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>Pinky 26cm 10 Inch Mini Hard Vinyl Silicone Full Body Reborn Baby Doll Realistic Newborn Dolls with Blue Dress Xmas Birthday Present</t>
-  </si>
-  <si>
-    <t>#2,483 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>#66,714 in Toys &amp; Games &gt; Preschool</t>
+    <t>#31,811 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#468 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Cute and Beautiful Baby BOY Sooo Sweet Preemie 14 Inches Life Like Reborn Pacifier Doll + Extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#109,845 in Baby (See top 100) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8905 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls </t>
+  </si>
+  <si>
+    <t>#184736 in Toys &amp; Games &gt; Preschool</t>
+  </si>
+  <si>
+    <t>NPK Collection Reborn Baby Doll realistic baby dolls 22 inch Vinyl Silicone Babies Doll Newborn real baby doll Cute boy</t>
+  </si>
+  <si>
+    <t>#144,850 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#1,673 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#2,377 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Magic Juice and Milk Bottle Set for Baby Dolls</t>
   </si>
   <si>
-    <t>#160 in Toys &amp; Games &gt; Dolls &amp; Accessories</t>
-  </si>
-  <si>
-    <t>#2,517 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys</t>
+    <t>#5,282 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#176 in Toys &amp; Games &gt; Dolls &amp; Accessories</t>
+  </si>
+  <si>
+    <t>#2,660 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys</t>
   </si>
   <si>
     <t>Dirance Lifelike Reborn Doll Accesories Girl Doll Clothes Kids Toy, Suit for 20" - 22" Reborn Baby (D)</t>
   </si>
   <si>
-    <t>#1,445 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#1,988 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>SanyDoll Reborn Baby Doll Newborn Doll 22inch 55cm Magnetic Lifelike Cute Lovely Baby Cute sleeping doll</t>
-  </si>
-  <si>
-    <t>#1,085 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#1,451 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#51,129 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#650 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#778 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Silicone Reborn Baby Dolls Girl Look Real Lifelike Toddler White Outfit with Lovely Patterns 16 Inches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#46,902 in Baby (See top 100) </t>
+  </si>
+  <si>
+    <t>#3029 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>Paradise Galleries Reborn Baby Doll Like Baby Doll That Looks Real, Cuddle Bear Bella, Girl Doll Crafted in Soft Vinyl and Weighted Body, 21 inch</t>
+  </si>
+  <si>
+    <t>#167,312 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#1,942 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#2,813 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>iCradle 26cm 10" Mini Lovely Cute Realistic Lifelike Full Silicone Vinyl Body Sleeping Reborn Baby Doll Girl for Kids Birthday Christmas Gift Playmate Growth Partner</t>
   </si>
   <si>
-    <t>#331 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#390 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#27,544 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#353 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#409 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Handmade RealLife Baby Dolls 18" Soft Silicone Vinyl Reborns Lifelike Newborn Baby Girl Toy Magnetic Pacifier</t>
   </si>
   <si>
-    <t>#410 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#91,276 in Home &amp; Kitchen (See Top 100 in Home &amp; Kitchen)</t>
+  </si>
+  <si>
+    <t>#461 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>NPK collection Reborn Baby Doll, Vinyl Silicone 22 inch 55 cm Babies Doll, Lifelike express Toys Girl for Children Gift</t>
+  </si>
+  <si>
+    <t>#216,073 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#2,469 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#3,715 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>22" Reborn Newborn Baby Doll Realistic Lifelike Handmade Weighted Baby for Ages 3+, Soft Silicone Vinyl</t>
   </si>
   <si>
-    <t>#806 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>Realistic Sleeping Reborn Baby Doll Girl Lifelike Silicone Pink 22 Inches</t>
-  </si>
-  <si>
-    <t>#1,320 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#59,411 in Toys &amp; Games (See top 100)</t>
+  </si>
+  <si>
+    <t>#913 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>MaiDe Reborn Baby Dolls 22" Cute Realistic Soft Silicone Vinyl Dolls Newborn Baby dolls With Clothes</t>
   </si>
   <si>
-    <t>#1,026 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#1,354 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#49,365 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#635 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#759 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Reborn Baby Doll Like Lifelike Newborn Baby Doll, Bundle Of Joy, Girl Doll Crafted in Soft Vinyl and Weighted Body, 17 inch by Paradise Galleries</t>
   </si>
   <si>
-    <t>#1,365 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>Reborn Baby Dolls Boy Silicone Newborn Eyes Open 22 inch Brown Bear</t>
-  </si>
-  <si>
-    <t>#3,654 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#5,660 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
-  </si>
-  <si>
-    <t>Seedollia Reborn Baby Doll Girl Silicone Realistic New Born Toddler Open Blue Eyes 22 inch Pink and Blue Skirt</t>
-  </si>
-  <si>
-    <t>#1,978 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Playsets</t>
-  </si>
-  <si>
-    <t>iCradle 23" 57cm Lifelike Sleeping Baby Girl Full Body Vinyl Silicone Simulation Reborn Dolls Realistic Looking Reborn Baby Doll Anatomically Correct Magnetic Mouth with Dummy</t>
-  </si>
-  <si>
-    <t>#3,234 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#4,992 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#128,992 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#2,064 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+  </si>
+  <si>
+    <t>JC Toys La Newborn Real Boy Baby Doll, Stripes</t>
+  </si>
+  <si>
+    <t>#202,600 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#2,311 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#3,454 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>PENSON &amp; CO. Reborn Newborn Baby Realike Doll Handmade Lifelike Silicone Vinyl Weighted Alive Doll for Toddler Gifts 10"</t>
   </si>
   <si>
-    <t>#81 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#101 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#6,406 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#72 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#90 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>The Ashton-Drake Galleries Sophia Breathes, Coos and has a Heartbeat - So Truly Real Lifelike, Interactive &amp; Realistic Weighted Newborn Baby Doll 19-inches by</t>
   </si>
   <si>
-    <t>#789 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#991 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#104,586 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#1,215 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#1,639 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Paradise Galleries Lifelike Realistic Baby Doll, Tall Dreams Gift Set Ensemble, 19-inch Weighted Baby, for Ages 3+</t>
   </si>
   <si>
-    <t>#119 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
-  </si>
-  <si>
-    <t>#149 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t>#9,177 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#110 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys &gt; Activity &gt; Dolls &amp; Dollhouses</t>
+  </si>
+  <si>
+    <t>#133 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Real Life Silicone Reborn Baby Dolls Boy Look Real White Outfit 22 Inches</t>
   </si>
   <si>
-    <t>#584 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
+    <t xml:space="preserve">#21,063 in Baby (See top 100) </t>
+  </si>
+  <si>
+    <t>#1054 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Dolls</t>
   </si>
   <si>
     <t>Paradise Galleries Baby Doll Bottles 4 inch Reborn and Realistic Magic Bottle Disappearing Feeding Milk and Juice Set</t>
   </si>
   <si>
-    <t>#116 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Playsets</t>
-  </si>
-  <si>
-    <t>#8,241 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys</t>
+    <t>#14,711 in Toys &amp; Games (See Top 100 in Toys &amp; Games)</t>
+  </si>
+  <si>
+    <t>#92 in Toys &amp; Games &gt; Dolls &amp; Accessories &gt; Playsets</t>
+  </si>
+  <si>
+    <t>#7,099 in Toys &amp; Games &gt; Preschool &gt; Pre-Kindergarten Toys</t>
   </si>
 </sst>
 </file>
@@ -266,9 +362,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -281,7 +377,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +512,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -309,120 +519,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -433,187 +529,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,67 +723,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,8 +750,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +779,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -732,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,133 +840,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,323 +1322,420 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="183.75" customWidth="1"/>
     <col min="2" max="2" width="100.375" customWidth="1"/>
-    <col min="3" max="3" width="64.875" customWidth="1"/>
+    <col min="3" max="4" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/AmazonCrawler/data/listingresult.xlsx
+++ b/AmazonCrawler/data/listingresult.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowHeight="13050" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="爬取结果表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="爬取结果表" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="0">
   <si>
     <t>OtardDolls Hot sale soft vinyl silicone reborn doll 22" reborn baby doll lifelike baby doll children gifts</t>
   </si>
@@ -363,9 +363,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -822,211 +822,211 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="22" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="27" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1040,10 +1040,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1201,7 +1201,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1210,13 +1210,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1226,7 +1226,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1235,7 +1235,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1244,7 +1244,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1254,12 +1254,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1290,7 +1290,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1309,7 +1309,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1320,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -1330,423 +1330,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="183.75" customWidth="1"/>
-    <col min="2" max="2" width="100.375" customWidth="1"/>
-    <col min="3" max="4" width="64.875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="183.75" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="100.375" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" width="64.875" collapsed="false"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1756,14 +1352,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1773,8 +1369,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/AmazonCrawler/data/listingresult.xlsx
+++ b/AmazonCrawler/data/listingresult.xlsx
@@ -1330,9 +1330,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="183.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="100.375" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" width="64.875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="183.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="100.375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="64.875" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
